--- a/kicad_v2/halo_v2_BoM_JLCpcb.xlsx
+++ b/kicad_v2/halo_v2_BoM_JLCpcb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">RGB 620~630nmRed,515~530nmGreen,465~475nmBlue SMD,5x5mm Light Emitting Diodes (LED) RoHS</t>
   </si>
   <si>
-    <t xml:space="preserve">D1-D32, D37-D68</t>
+    <t xml:space="preserve">D1-32</t>
   </si>
   <si>
     <t xml:space="preserve">PLCC4_5.0x5.0mm_P3.2mm</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">WS2812B-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D37-68</t>
   </si>
   <si>
     <t xml:space="preserve">40V 2A 430mV @ 2A SMB(DO-214AA) Schottky Barrier Diodes (SBD) RoHS</t>
@@ -423,7 +426,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="31.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +578,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -583,68 +586,68 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -652,22 +655,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G10" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -675,19 +678,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>2</v>
@@ -698,19 +701,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>2</v>
@@ -720,23 +723,23 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="G13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -744,19 +747,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
@@ -767,19 +770,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
@@ -790,30 +793,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+    <row r="17" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="31.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="14"/>
@@ -857,7 +876,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="31.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="14"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -875,16 +900,17 @@
     <hyperlink ref="E4" r:id="rId3" display="C28323"/>
     <hyperlink ref="E5" r:id="rId4" display="C1798"/>
     <hyperlink ref="E6" r:id="rId5" display="C114586"/>
-    <hyperlink ref="E7" r:id="rId6" display="C8165"/>
-    <hyperlink ref="E8" r:id="rId7" display="C2296"/>
-    <hyperlink ref="E9" r:id="rId8" display="C17414"/>
-    <hyperlink ref="E10" r:id="rId9" display="C46039"/>
-    <hyperlink ref="E11" r:id="rId10" display="C17513"/>
-    <hyperlink ref="E12" r:id="rId11" display="C17557"/>
-    <hyperlink ref="E13" r:id="rId12" display="C273519"/>
-    <hyperlink ref="E14" r:id="rId13" display="C14877"/>
-    <hyperlink ref="E15" r:id="rId14" display="C126028"/>
-    <hyperlink ref="E16" r:id="rId15" display="C13738"/>
+    <hyperlink ref="E7" r:id="rId6" display="C114586"/>
+    <hyperlink ref="E8" r:id="rId7" display="C8165"/>
+    <hyperlink ref="E9" r:id="rId8" display="C2296"/>
+    <hyperlink ref="E10" r:id="rId9" display="C17414"/>
+    <hyperlink ref="E11" r:id="rId10" display="C46039"/>
+    <hyperlink ref="E12" r:id="rId11" display="C17513"/>
+    <hyperlink ref="E13" r:id="rId12" display="C17557"/>
+    <hyperlink ref="E14" r:id="rId13" display="C273519"/>
+    <hyperlink ref="E15" r:id="rId14" display="C14877"/>
+    <hyperlink ref="E16" r:id="rId15" display="C126028"/>
+    <hyperlink ref="E17" r:id="rId16" display="C13738"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
